--- a/10150_0145.xlsx
+++ b/10150_0145.xlsx
@@ -2492,131 +2492,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId95"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>248</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="96" name="Image 96" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId96"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>248</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="97" name="Image 97" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId97"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>248</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="98" name="Image 98" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId98"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>13</col>
-      <colOff>0</colOff>
-      <row>248</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="99" name="Image 99" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId99"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>17</col>
-      <colOff>0</colOff>
-      <row>248</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="2438400" cy="2438400"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="100" name="Image 100" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId100"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2919,7 +2794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,14 +3110,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>102.0382737_2.0967972_10150_0145_7</t>
+          <t>101.8433178_1.7257211_10150_0145_7</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.0382737</v>
+        <v>101.8433178</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0967972</v>
+        <v>1.7257211</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3251,41 +3126,41 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cuts/102.0382737,2.0967972_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8433178,1.7257211_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>cuts/102.0382737,2.0967972_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8433178,1.7257211_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>cuts/102.0382737,2.0967972_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8433178,1.7257211_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>cuts/102.0382737,2.0967972_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8433178,1.7257211_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>cuts/102.0382737,2.0967972_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8433178,1.7257211_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>101.8433178_1.7257211_10150_0145_8</t>
+          <t>101.8539335_1.7349786_10150_0145_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101.8433178</v>
+        <v>101.8539335</v>
       </c>
       <c r="C9" t="n">
-        <v>1.7257211</v>
+        <v>1.7349786</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3294,41 +3169,41 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cuts/101.8433178,1.7257211_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8539335,1.7349786_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>cuts/101.8433178,1.7257211_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8539335,1.7349786_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>cuts/101.8433178,1.7257211_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8539335,1.7349786_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>cuts/101.8433178,1.7257211_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8539335,1.7349786_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>cuts/101.8433178,1.7257211_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8539335,1.7349786_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>101.8539335_1.7349786_10150_0145_9</t>
+          <t>101.8236367_1.7502225_10150_0145_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101.8539335</v>
+        <v>101.8236367</v>
       </c>
       <c r="C10" t="n">
-        <v>1.7349786</v>
+        <v>1.7502225</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3337,41 +3212,41 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cuts/101.8539335,1.7349786_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8236367,1.7502225_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>cuts/101.8539335,1.7349786_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8236367,1.7502225_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>cuts/101.8539335,1.7349786_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8236367,1.7502225_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>cuts/101.8539335,1.7349786_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8236367,1.7502225_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>cuts/101.8539335,1.7349786_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8236367,1.7502225_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>101.8236367_1.7502225_10150_0145_10</t>
+          <t>101.8460234_1.7506050_10150_0145_10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>101.8236367</v>
+        <v>101.8460234</v>
       </c>
       <c r="C11" t="n">
-        <v>1.7502225</v>
+        <v>1.750605</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3380,41 +3255,41 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cuts/101.8236367,1.7502225_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8460234,1.7506050_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>cuts/101.8236367,1.7502225_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8460234,1.7506050_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>cuts/101.8236367,1.7502225_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8460234,1.7506050_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>cuts/101.8236367,1.7502225_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8460234,1.7506050_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>cuts/101.8236367,1.7502225_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8460234,1.7506050_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>101.8460234_1.7506050_10150_0145_11</t>
+          <t>101.8190305_1.6476348_10150_0145_11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>101.8460234</v>
+        <v>101.8190305</v>
       </c>
       <c r="C12" t="n">
-        <v>1.750605</v>
+        <v>1.6476348</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3423,41 +3298,41 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cuts/101.8460234,1.7506050_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8190305,1.6476348_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>cuts/101.8460234,1.7506050_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8190305,1.6476348_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>cuts/101.8460234,1.7506050_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8190305,1.6476348_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>cuts/101.8460234,1.7506050_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8190305,1.6476348_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>cuts/101.8460234,1.7506050_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8190305,1.6476348_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>101.8190305_1.6476348_10150_0145_12</t>
+          <t>101.9532522_1.6495564_10150_0145_12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>101.8190305</v>
+        <v>101.9532522</v>
       </c>
       <c r="C13" t="n">
-        <v>1.6476348</v>
+        <v>1.6495564</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3466,41 +3341,41 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>cuts/101.8190305,1.6476348_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9532522,1.6495564_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>cuts/101.8190305,1.6476348_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9532522,1.6495564_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>cuts/101.8190305,1.6476348_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9532522,1.6495564_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>cuts/101.8190305,1.6476348_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9532522,1.6495564_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>cuts/101.8190305,1.6476348_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9532522,1.6495564_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>101.9532522_1.6495564_10150_0145_13</t>
+          <t>101.9802064_1.6434397_10150_0145_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.9532522</v>
+        <v>101.9802064</v>
       </c>
       <c r="C14" t="n">
-        <v>1.6495564</v>
+        <v>1.6434397</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -3509,41 +3384,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cuts/101.9532522,1.6495564_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9802064,1.6434397_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>cuts/101.9532522,1.6495564_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9802064,1.6434397_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>cuts/101.9532522,1.6495564_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9802064,1.6434397_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>cuts/101.9532522,1.6495564_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9802064,1.6434397_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>cuts/101.9532522,1.6495564_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9802064,1.6434397_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>101.9802064_1.6434397_10150_0145_14</t>
+          <t>101.9799224_1.6148286_10150_0145_14</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>101.9802064</v>
+        <v>101.9799224</v>
       </c>
       <c r="C15" t="n">
-        <v>1.6434397</v>
+        <v>1.6148286</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3552,41 +3427,41 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>cuts/101.9802064,1.6434397_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9799224,1.6148286_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>cuts/101.9802064,1.6434397_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9799224,1.6148286_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>cuts/101.9802064,1.6434397_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9799224,1.6148286_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>cuts/101.9802064,1.6434397_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9799224,1.6148286_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>cuts/101.9802064,1.6434397_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9799224,1.6148286_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>101.9799224_1.6148286_10150_0145_15</t>
+          <t>101.8904406_1.6020681_10150_0145_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>101.9799224</v>
+        <v>101.8904406</v>
       </c>
       <c r="C16" t="n">
-        <v>1.6148286</v>
+        <v>1.6020681</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -3595,41 +3470,41 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>cuts/101.9799224,1.6148286_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8904406,1.6020681_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>cuts/101.9799224,1.6148286_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8904406,1.6020681_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>cuts/101.9799224,1.6148286_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8904406,1.6020681_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>cuts/101.9799224,1.6148286_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8904406,1.6020681_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>cuts/101.9799224,1.6148286_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8904406,1.6020681_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>101.8904406_1.6020681_10150_0145_16</t>
+          <t>102.0112995_1.4364702_10150_0145_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.8904406</v>
+        <v>102.0112995</v>
       </c>
       <c r="C17" t="n">
-        <v>1.6020681</v>
+        <v>1.4364702</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -3638,41 +3513,41 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>cuts/101.8904406,1.6020681_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/102.0112995,1.4364702_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>cuts/101.8904406,1.6020681_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/102.0112995,1.4364702_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>cuts/101.8904406,1.6020681_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/102.0112995,1.4364702_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>cuts/101.8904406,1.6020681_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/102.0112995,1.4364702_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>cuts/101.8904406,1.6020681_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/102.0112995,1.4364702_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>102.0112995_1.4364702_10150_0145_17</t>
+          <t>101.9246156_1.4895436_10150_0145_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>102.0112995</v>
+        <v>101.9246156</v>
       </c>
       <c r="C18" t="n">
-        <v>1.4364702</v>
+        <v>1.4895436</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -3681,41 +3556,41 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cuts/102.0112995,1.4364702_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.9246156,1.4895436_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>cuts/102.0112995,1.4364702_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.9246156,1.4895436_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>cuts/102.0112995,1.4364702_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.9246156,1.4895436_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>cuts/102.0112995,1.4364702_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.9246156,1.4895436_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>cuts/102.0112995,1.4364702_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.9246156,1.4895436_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>101.9246156_1.4895436_10150_0145_18</t>
+          <t>101.8226272_1.4226160_10150_0145_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.9246156</v>
+        <v>101.8226272</v>
       </c>
       <c r="C19" t="n">
-        <v>1.4895436</v>
+        <v>1.422616</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3724,41 +3599,41 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cuts/101.9246156,1.4895436_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.8226272,1.4226160_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>cuts/101.9246156,1.4895436_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.8226272,1.4226160_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>cuts/101.9246156,1.4895436_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.8226272,1.4226160_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>cuts/101.9246156,1.4895436_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.8226272,1.4226160_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>cuts/101.9246156,1.4895436_10150_0145_Azul-3.5micras.jpeg</t>
+          <t>cuts/101.8226272,1.4226160_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>101.8226272_1.4226160_10150_0145_19</t>
+          <t>101.7638373_1.9509569_10150_0145_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>101.8226272</v>
+        <v>101.7638373</v>
       </c>
       <c r="C20" t="n">
-        <v>1.422616</v>
+        <v>1.9509569</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3767,68 +3642,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cuts/101.8226272,1.4226160_10150_0145_RGB-composite.jpeg</t>
+          <t>cuts/101.7638373,1.9509569_10150_0145_RGB-composite.jpeg</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>cuts/101.8226272,1.4226160_10150_0145_Rojo-8micras.jpeg</t>
+          <t>cuts/101.7638373,1.9509569_10150_0145_Rojo-8micras.jpeg</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>cuts/101.8226272,1.4226160_10150_0145_I3-5.8micras.jpeg</t>
+          <t>cuts/101.7638373,1.9509569_10150_0145_I3-5.8micras.jpeg</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>cuts/101.8226272,1.4226160_10150_0145_Verde-4.6micras.jpeg</t>
+          <t>cuts/101.7638373,1.9509569_10150_0145_Verde-4.6micras.jpeg</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>cuts/101.8226272,1.4226160_10150_0145_Azul-3.5micras.jpeg</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>101.7638373_1.9509569_10150_0145_20</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>101.7638373</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.9509569</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>cuts/101.7638373,1.9509569_10150_0145_RGB-composite.jpeg</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>cuts/101.7638373,1.9509569_10150_0145_Rojo-8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>cuts/101.7638373,1.9509569_10150_0145_I3-5.8micras.jpeg</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>cuts/101.7638373,1.9509569_10150_0145_Verde-4.6micras.jpeg</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
         <is>
           <t>cuts/101.7638373,1.9509569_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
@@ -3845,7 +3677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R249"/>
+  <dimension ref="A1:R236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3942,98 +3774,91 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>102.0382737_2.0967972_10150_0145_7</t>
+          <t>101.8433178_1.7257211_10150_0145_7</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>101.8433178_1.7257211_10150_0145_8</t>
+          <t>101.8539335_1.7349786_10150_0145_8</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>101.8539335_1.7349786_10150_0145_9</t>
+          <t>101.8236367_1.7502225_10150_0145_9</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>101.8236367_1.7502225_10150_0145_10</t>
+          <t>101.8460234_1.7506050_10150_0145_10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>101.8460234_1.7506050_10150_0145_11</t>
+          <t>101.8190305_1.6476348_10150_0145_11</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>101.8190305_1.6476348_10150_0145_12</t>
+          <t>101.9532522_1.6495564_10150_0145_12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>101.9532522_1.6495564_10150_0145_13</t>
+          <t>101.9802064_1.6434397_10150_0145_13</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>101.9802064_1.6434397_10150_0145_14</t>
+          <t>101.9799224_1.6148286_10150_0145_14</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>101.9799224_1.6148286_10150_0145_15</t>
+          <t>101.8904406_1.6020681_10150_0145_15</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>101.8904406_1.6020681_10150_0145_16</t>
+          <t>102.0112995_1.4364702_10150_0145_16</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>102.0112995_1.4364702_10150_0145_17</t>
+          <t>101.9246156_1.4895436_10150_0145_17</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>101.9246156_1.4895436_10150_0145_18</t>
+          <t>101.8226272_1.4226160_10150_0145_18</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>101.8226272_1.4226160_10150_0145_19</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>101.7638373_1.9509569_10150_0145_20</t>
+          <t>101.7638373_1.9509569_10150_0145_19</t>
         </is>
       </c>
     </row>

--- a/10150_0145.xlsx
+++ b/10150_0145.xlsx
@@ -2794,7 +2794,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2848,6 +2848,86 @@
           <t>3.5-micron Filter</t>
         </is>
       </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>I4 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>I4 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>I2 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>I2 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>I1 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>I1 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>I3 Low Pixel Limit</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>I3 High Pixel Limit</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>I4 Contrast</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>I4 Bias</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>I2 Contrast</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>I2 Bias</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>I1 Contrast</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>I1 Bias</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>I3 Contrast</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>I3 Bias</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2891,6 +2971,54 @@
           <t>cuts/101.8141757,1.7178163_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K2" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2934,6 +3062,54 @@
           <t>cuts/101.5673673,1.9659944_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J3" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K3" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M3" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2977,6 +3153,54 @@
           <t>cuts/101.9682331,1.1808128_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J4" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -3020,6 +3244,54 @@
           <t>cuts/101.6553427,2.0754114_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J5" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K5" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M5" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3063,6 +3335,54 @@
           <t>cuts/102.0340253,2.0884071_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J6" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K6" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M6" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3106,6 +3426,54 @@
           <t>cuts/101.9556592,2.0835051_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J7" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K7" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3149,6 +3517,54 @@
           <t>cuts/101.8433178,1.7257211_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J8" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K8" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3192,6 +3608,54 @@
           <t>cuts/101.8539335,1.7349786_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J9" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3235,6 +3699,54 @@
           <t>cuts/101.8236367,1.7502225_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J10" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K10" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M10" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O10" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3278,6 +3790,54 @@
           <t>cuts/101.8460234,1.7506050_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J11" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K11" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3321,6 +3881,54 @@
           <t>cuts/101.8190305,1.6476348_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J12" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K12" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M12" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O12" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3364,6 +3972,54 @@
           <t>cuts/101.9532522,1.6495564_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J13" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O13" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3407,6 +4063,54 @@
           <t>cuts/101.9802064,1.6434397_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J14" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M14" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O14" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3450,6 +4154,54 @@
           <t>cuts/101.9799224,1.6148286_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J15" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K15" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M15" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O15" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3493,6 +4245,54 @@
           <t>cuts/101.8904406,1.6020681_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J16" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K16" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O16" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3536,6 +4336,54 @@
           <t>cuts/102.0112995,1.4364702_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J17" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K17" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -3579,6 +4427,54 @@
           <t>cuts/101.9246156,1.4895436_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J18" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K18" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X18" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3622,6 +4518,54 @@
           <t>cuts/101.8226272,1.4226160_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
       </c>
+      <c r="J19" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O19" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.4738805970149254</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3664,6 +4608,54 @@
         <is>
           <t>cuts/101.7638373,1.9509569_10150_0145_Azul-3.5micras.jpeg</t>
         </is>
+      </c>
+      <c r="J20" t="n">
+        <v>2.05987</v>
+      </c>
+      <c r="K20" t="n">
+        <v>14.1319</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.08746</v>
+      </c>
+      <c r="M20" t="n">
+        <v>14.2581</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.386169</v>
+      </c>
+      <c r="O20" t="n">
+        <v>14.5226</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.08658</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14.124</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.49254</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.429104</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.15672</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.455224</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.932836</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.514925</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.30597014925</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.4738805970149254</v>
       </c>
     </row>
   </sheetData>
